--- a/_site/timeline.xlsx
+++ b/_site/timeline.xlsx
@@ -1,19 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CUTTING\Documents\RepTemplates\website1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3AF1F0-B5FE-4AD4-BED2-65E1C35E0531}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>start</t>
   </si>
@@ -186,9 +203,6 @@
     <t>41.3961119</t>
   </si>
   <si>
-    <t>Carrer de Casp, 103, 08013 Barcelona</t>
-  </si>
-  <si>
     <t>Barcelona</t>
   </si>
   <si>
@@ -201,9 +215,6 @@
     <t>41.3868794</t>
   </si>
   <si>
-    <t xml:space="preserve"> Plaça de Catalunya, 19, 08002 Barcelona</t>
-  </si>
-  <si>
     <t xml:space="preserve">Catalonia Sagrada Familia </t>
   </si>
   <si>
@@ -213,27 +224,18 @@
     <t>41.4034789</t>
   </si>
   <si>
-    <t>Carrer d'Aragó, 577, 579, 08026 Barcelona</t>
-  </si>
-  <si>
     <t>2.159</t>
   </si>
   <si>
     <t>41.3888</t>
   </si>
   <si>
-    <t>Rambla de Canaletes, 133, 08002 Barcelona</t>
-  </si>
-  <si>
     <t>2.1704199</t>
   </si>
   <si>
     <t>41.3892981</t>
   </si>
   <si>
-    <t>Carrer de Casp, 17, 08010 Barcelona</t>
-  </si>
-  <si>
     <t>Rusc De turisme</t>
   </si>
   <si>
@@ -243,9 +245,6 @@
     <t>41.385738</t>
   </si>
   <si>
-    <t>Carrer de Montsió, 10, 08002 Barcelona</t>
-  </si>
-  <si>
     <t xml:space="preserve">Castell Montjuic </t>
   </si>
   <si>
@@ -255,29 +254,34 @@
     <t>41.3634</t>
   </si>
   <si>
-    <t>Montjuïc Castle, Barcelona, Catalunya, Spain</t>
+    <t>Carrer de Casp, 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plaça de Catalunya, 19</t>
+  </si>
+  <si>
+    <t>Carrer d'Aragó, 577, 579</t>
+  </si>
+  <si>
+    <t>Rambla de Canaletes, 133</t>
+  </si>
+  <si>
+    <t>Carrer de Casp, 17a</t>
+  </si>
+  <si>
+    <t>Carrer de Montsió, 10</t>
+  </si>
+  <si>
+    <t>Montjuïc Castle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -285,11 +289,19 @@
       <sz val="10"/>
       <color indexed="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -331,65 +343,38 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,26 +383,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff222222"/>
-      <rgbColor rgb="ff333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -619,7 +663,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -638,7 +682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -668,7 +712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -694,7 +738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -720,7 +764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -746,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -772,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,9 +933,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -908,7 +958,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -927,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,7 +1029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1031,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,9 +1224,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1190,7 +1246,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1209,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,7 +1321,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,7 +1347,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,7 +1373,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1343,7 +1399,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,7 +1425,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1395,7 +1451,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1421,7 +1477,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1447,7 +1503,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1460,32 +1516,38 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="256" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -1494,29 +1556,29 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="6">
         <v>43609.375</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7">
@@ -1526,12 +1588,12 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="6">
         <v>43609.458333333336</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="7">
@@ -1541,16 +1603,16 @@
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" t="s" s="5">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="6">
         <v>43609.5625</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="7">
@@ -1560,16 +1622,16 @@
       <c r="F5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" t="s" s="5">
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6">
         <v>43609.625</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="7">
@@ -1579,16 +1641,16 @@
       <c r="F6" s="7">
         <v>3</v>
       </c>
-      <c r="G6" t="s" s="5">
+      <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="6">
         <v>43609.833333333336</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="7">
@@ -1598,16 +1660,16 @@
       <c r="F7" s="7">
         <v>4</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6">
         <v>43610.375</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="7">
@@ -1619,7 +1681,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1627,24 +1689,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.3047" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.6719" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.8828" style="8" customWidth="1"/>
-    <col min="7" max="8" width="8.85156" style="8" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" style="8" customWidth="1"/>
+    <col min="7" max="256" width="8.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1654,190 +1715,190 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="9">
         <v>43609</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="7">
         <v>17</v>
       </c>
-      <c r="F3" t="s" s="10">
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="7">
         <v>176</v>
       </c>
       <c r="H3" s="11">
-        <f>G3*E3</f>
+        <f t="shared" ref="H3:H21" si="0">G3*E3</f>
         <v>2992</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="9">
         <v>43609</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="7">
         <v>17</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="7">
         <v>1.21</v>
       </c>
       <c r="H4" s="11">
-        <f>G4*E4</f>
+        <f t="shared" si="0"/>
         <v>20.57</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="9">
         <v>43609</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" t="s" s="10">
+      <c r="F5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="7">
         <v>228</v>
       </c>
       <c r="H5" s="11">
-        <f>G5*E5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="9">
         <v>43609</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" t="s" s="10">
+      <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="7">
         <v>1.21</v>
       </c>
       <c r="H6" s="11">
-        <f>G6*E6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="9">
         <v>43609</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" t="s" s="10">
+      <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="7">
         <v>120</v>
       </c>
       <c r="H7" s="11">
-        <f>G7*E7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="9">
         <v>43609</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s" s="10">
+      <c r="F8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="7">
         <v>1.21</v>
       </c>
       <c r="H8" s="11">
-        <f>G8*E8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="9">
         <v>43609</v>
       </c>
-      <c r="C9" t="s" s="5">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" t="s" s="10">
+      <c r="F9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="7">
         <v>190</v>
       </c>
       <c r="H9" s="11">
-        <f>G9*E9</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
       <c r="C10" s="2"/>
@@ -1845,107 +1906,107 @@
       <c r="E10" s="7">
         <v>17</v>
       </c>
-      <c r="F10" t="s" s="10">
+      <c r="F10" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="7">
         <v>1.5</v>
       </c>
       <c r="H10" s="11">
-        <f>G10*E10</f>
+        <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="9">
         <v>43609</v>
       </c>
-      <c r="C11" t="s" s="5">
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="7">
         <v>17</v>
       </c>
-      <c r="F11" t="s" s="10">
+      <c r="F11" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="7">
         <v>39.5</v>
       </c>
       <c r="H11" s="11">
-        <f>G11*E11</f>
+        <f t="shared" si="0"/>
         <v>671.5</v>
       </c>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="9">
         <v>43609</v>
       </c>
-      <c r="C12" t="s" s="5">
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="7">
         <v>17</v>
       </c>
-      <c r="F12" t="s" s="10">
+      <c r="F12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="7">
         <v>4.5</v>
       </c>
       <c r="H12" s="11">
-        <f>G12*E12</f>
+        <f t="shared" si="0"/>
         <v>76.5</v>
       </c>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="9">
         <v>43609</v>
       </c>
-      <c r="C13" t="s" s="5">
+      <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s" s="5">
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="7">
         <v>17</v>
       </c>
-      <c r="F13" t="s" s="10">
+      <c r="F13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="7">
         <v>10.5</v>
       </c>
       <c r="H13" s="11">
-        <f>G13*E13</f>
+        <f t="shared" si="0"/>
         <v>178.5</v>
       </c>
     </row>
-    <row r="14" ht="42" customHeight="1">
+    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="9">
         <v>43609</v>
       </c>
-      <c r="C14" t="s" s="5">
+      <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="7">
         <v>17</v>
       </c>
-      <c r="F14" t="s" s="10">
+      <c r="F14" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="7">
@@ -1953,73 +2014,73 @@
         <v>32.5</v>
       </c>
       <c r="H14" s="11">
-        <f>G14*E14</f>
+        <f t="shared" si="0"/>
         <v>552.5</v>
       </c>
     </row>
-    <row r="15" ht="42" customHeight="1">
+    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="9">
         <v>43609</v>
       </c>
-      <c r="C15" t="s" s="5">
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s" s="5">
+      <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="7">
         <v>17</v>
       </c>
-      <c r="F15" t="s" s="10">
+      <c r="F15" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="7">
         <v>63</v>
       </c>
       <c r="H15" s="11">
-        <f>G15*E15</f>
+        <f t="shared" si="0"/>
         <v>1071</v>
       </c>
     </row>
-    <row r="16" ht="29" customHeight="1">
+    <row r="16" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="9">
         <v>43609</v>
       </c>
-      <c r="C16" t="s" s="5">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="7">
         <v>17</v>
       </c>
-      <c r="F16" t="s" s="10">
+      <c r="F16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="7">
         <v>34</v>
       </c>
       <c r="H16" s="11">
-        <f>G16*E16</f>
+        <f t="shared" si="0"/>
         <v>578</v>
       </c>
     </row>
-    <row r="17" ht="29" customHeight="1">
+    <row r="17" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="9">
         <v>43610</v>
       </c>
-      <c r="C17" t="s" s="5">
+      <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="7">
         <v>1</v>
       </c>
-      <c r="F17" t="s" s="10">
+      <c r="F17" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="7">
@@ -2027,11 +2088,11 @@
         <v>627</v>
       </c>
       <c r="H17" s="11">
-        <f>G17*E17</f>
+        <f t="shared" si="0"/>
         <v>627</v>
       </c>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="9"/>
       <c r="C18" s="2"/>
@@ -2039,99 +2100,99 @@
       <c r="E18" s="7">
         <v>17</v>
       </c>
-      <c r="F18" t="s" s="10">
+      <c r="F18" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="7">
         <v>1.5</v>
       </c>
       <c r="H18" s="11">
-        <f>G18*E18</f>
+        <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
     </row>
-    <row r="19" ht="29" customHeight="1">
+    <row r="19" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="9">
         <v>43610</v>
       </c>
-      <c r="C19" t="s" s="5">
+      <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="s" s="5">
+      <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="7">
         <v>17</v>
       </c>
-      <c r="F19" t="s" s="10">
+      <c r="F19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="7">
         <v>69</v>
       </c>
       <c r="H19" s="11">
-        <f>G19*E19</f>
+        <f t="shared" si="0"/>
         <v>1173</v>
       </c>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="9">
         <v>43610</v>
       </c>
-      <c r="C20" t="s" s="5">
+      <c r="C20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s" s="5">
+      <c r="D20" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="7">
         <v>17</v>
       </c>
-      <c r="F20" t="s" s="10">
+      <c r="F20" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="7">
         <v>12</v>
       </c>
       <c r="H20" s="11">
-        <f>G20*E20</f>
+        <f t="shared" si="0"/>
         <v>204</v>
       </c>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="9">
         <v>43610</v>
       </c>
-      <c r="C21" t="s" s="5">
+      <c r="C21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D21" t="s" s="5">
+      <c r="D21" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="7">
         <v>17</v>
       </c>
-      <c r="F21" t="s" s="10">
+      <c r="F21" s="10" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="7">
         <v>90</v>
       </c>
       <c r="H21" s="11">
-        <f>G21*E21</f>
+        <f t="shared" si="0"/>
         <v>1530</v>
       </c>
     </row>
-    <row r="22" ht="16" customHeight="1">
+    <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="9"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" t="s" s="12">
+      <c r="F22" s="12" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="2"/>
@@ -2140,7 +2201,7 @@
         <v>9915.57</v>
       </c>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="9"/>
       <c r="C23" s="2"/>
@@ -2150,7 +2211,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
+    <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="9"/>
       <c r="C24" s="2"/>
@@ -2162,7 +2223,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2170,23 +2231,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.85156" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="15" customWidth="1"/>
-    <col min="5" max="5" width="11.1719" style="15" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="15" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="15" customWidth="1"/>
-    <col min="8" max="256" width="8.85156" style="15" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="15" customWidth="1"/>
+    <col min="7" max="256" width="8.85546875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2195,167 +2257,167 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s" s="16">
+      <c r="F3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s" s="5">
+    </row>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s" s="5">
+      <c r="D4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s" s="5">
+      <c r="C5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F4" t="s" s="17">
+      <c r="D5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s" s="5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s" s="5">
+      <c r="E5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="F5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s" s="5">
+      <c r="E6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F5" t="s" s="5">
+      <c r="F6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E6" t="s" s="5">
+      <c r="F7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F6" t="s" s="5">
+      <c r="D8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="F8" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="D9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D8" t="s" s="5">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s" s="5">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="D9" t="s" s="5">
-        <v>78</v>
-      </c>
-      <c r="E9" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="18" t="s">
         <v>80</v>
       </c>
       <c r="G9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
